--- a/실무_엑셀_예제_파일/Chapter01/01-002.xlsx
+++ b/실무_엑셀_예제_파일/Chapter01/01-002.xlsx
@@ -1,41 +1,32 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\csson\Documents\00. 진행\엑셀\최종\예제 파일\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\excel\실무_엑셀_예제_파일\Chapter01\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16F731BE-01D7-4D9D-8798-B64CCEBDEDA5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5CC6A0D8-0BAA-4D2B-B33D-DDD552D9F91A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{61F652BE-E9ED-488F-B2E4-50F36D1870B4}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" activeTab="1" xr2:uid="{61F652BE-E9ED-488F-B2E4-50F36D1870B4}"/>
   </bookViews>
   <sheets>
     <sheet name="빠른채우기" sheetId="1" r:id="rId1"/>
     <sheet name="셀병합문제" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="122">
   <si>
     <t>연락처</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -250,6 +241,181 @@
   </si>
   <si>
     <t>빠른 채우기로 입력합니다</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Stephen.Choi</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>JH.Park</t>
+  </si>
+  <si>
+    <t>John.Kim</t>
+  </si>
+  <si>
+    <t>MinHyung.Kim</t>
+  </si>
+  <si>
+    <t>Robert.Lee</t>
+  </si>
+  <si>
+    <t>Sara.Jeong</t>
+  </si>
+  <si>
+    <t>EunSae.Lee</t>
+  </si>
+  <si>
+    <t>Jenny.Park</t>
+  </si>
+  <si>
+    <t>Julia.Park</t>
+  </si>
+  <si>
+    <t>SuHyeon.Park</t>
+  </si>
+  <si>
+    <t>James.Kim</t>
+  </si>
+  <si>
+    <t>Sean.Lee</t>
+  </si>
+  <si>
+    <t>Stephen.Choi@naver.com</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>JH.Park@naver.com</t>
+  </si>
+  <si>
+    <t>John.Kim@naver.com</t>
+  </si>
+  <si>
+    <t>MinHyung.Kim@naver.com</t>
+  </si>
+  <si>
+    <t>Robert.Lee@naver.com</t>
+  </si>
+  <si>
+    <t>Sara.Jeong@naver.com</t>
+  </si>
+  <si>
+    <t>EunSae.Lee@naver.com</t>
+  </si>
+  <si>
+    <t>Jenny.Park@naver.com</t>
+  </si>
+  <si>
+    <t>Julia.Park@naver.com</t>
+  </si>
+  <si>
+    <t>SuHyeon.Park@naver.com</t>
+  </si>
+  <si>
+    <t>James.Kim@naver.com</t>
+  </si>
+  <si>
+    <t>Sean.Lee@naver.com</t>
+  </si>
+  <si>
+    <t>(+82)0-987-8179</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>(+82)0-987-7827</t>
+  </si>
+  <si>
+    <t>(+82)0-987-4453</t>
+  </si>
+  <si>
+    <t>(+82)0-987-8966</t>
+  </si>
+  <si>
+    <t>(+82)0-987-6745</t>
+  </si>
+  <si>
+    <t>(+82)0-987-6219</t>
+  </si>
+  <si>
+    <t>(+82)0-654-8416</t>
+  </si>
+  <si>
+    <t>(+82)0-654-8920</t>
+  </si>
+  <si>
+    <t>(+82)0-654-5319</t>
+  </si>
+  <si>
+    <t>(+82)0-654-6110</t>
+  </si>
+  <si>
+    <t>(+82)0-654-8507</t>
+  </si>
+  <si>
+    <t>(+82)0-654-7877</t>
+  </si>
+  <si>
+    <t>경기도</t>
+  </si>
+  <si>
+    <t>경기도</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>서울특별시</t>
+  </si>
+  <si>
+    <t>인사부, 총무부</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>회계부, 재무부</t>
+  </si>
+  <si>
+    <t>영업부, 마케팅부</t>
+  </si>
+  <si>
+    <t>총무부, 영업부</t>
+  </si>
+  <si>
+    <t>회계부, 인사부</t>
+  </si>
+  <si>
+    <t>IT부, 기획부</t>
+  </si>
+  <si>
+    <t>영업기획부, 전략기획부</t>
+  </si>
+  <si>
+    <t>생산부, 물류부</t>
+  </si>
+  <si>
+    <t>해외영업부, 영업부</t>
+  </si>
+  <si>
+    <t>인사부, 영업부</t>
+  </si>
+  <si>
+    <t>물류부, 생산부</t>
+  </si>
+  <si>
+    <t>최*민</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>박*민</t>
+  </si>
+  <si>
+    <t>김*민</t>
+  </si>
+  <si>
+    <t>이*민</t>
+  </si>
+  <si>
+    <t>정*민</t>
+  </si>
+  <si>
+    <t>무악동</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -397,7 +563,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -413,7 +579,7 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1">
@@ -436,6 +602,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -827,27 +996,27 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{905AE88E-C774-4C6E-B2AC-8E7BD4D2CC35}">
   <dimension ref="B1:M16"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+    <sheetView topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="M23" sqref="M23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="4.5" customWidth="1"/>
     <col min="2" max="2" width="23.75" customWidth="1"/>
-    <col min="3" max="3" width="13.875" customWidth="1"/>
-    <col min="4" max="4" width="29.125" customWidth="1"/>
+    <col min="3" max="3" width="13.83203125" customWidth="1"/>
+    <col min="4" max="4" width="29.08203125" customWidth="1"/>
     <col min="5" max="7" width="12.25" customWidth="1"/>
-    <col min="8" max="8" width="14.625" style="6" customWidth="1"/>
-    <col min="9" max="9" width="14.875" customWidth="1"/>
-    <col min="10" max="10" width="13.25" customWidth="1"/>
-    <col min="11" max="11" width="13.125" customWidth="1"/>
-    <col min="12" max="12" width="15.375" customWidth="1"/>
+    <col min="8" max="8" width="14.58203125" style="6" customWidth="1"/>
+    <col min="9" max="9" width="23.5" customWidth="1"/>
+    <col min="10" max="10" width="16.83203125" customWidth="1"/>
+    <col min="11" max="11" width="13.08203125" customWidth="1"/>
+    <col min="12" max="12" width="20.4140625" customWidth="1"/>
     <col min="13" max="13" width="20.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:13" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="2" spans="2:13" ht="34.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="2:13" ht="17.5" thickBot="1" x14ac:dyDescent="0.5"/>
+    <row r="2" spans="2:13" ht="34.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B2" s="10" t="s">
         <v>57</v>
       </c>
@@ -860,7 +1029,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="4" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:13" x14ac:dyDescent="0.45">
       <c r="B4" s="1" t="s">
         <v>2</v>
       </c>
@@ -898,7 +1067,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="5" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:13" x14ac:dyDescent="0.45">
       <c r="B5" s="3" t="s">
         <v>6</v>
       </c>
@@ -915,14 +1084,26 @@
         <v>43</v>
       </c>
       <c r="G5" s="3"/>
-      <c r="H5" s="8"/>
-      <c r="I5" s="3"/>
-      <c r="J5" s="3"/>
-      <c r="K5" s="3"/>
-      <c r="L5" s="3"/>
-      <c r="M5" s="3"/>
-    </row>
-    <row r="6" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="H5" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="I5" s="13" t="s">
+        <v>78</v>
+      </c>
+      <c r="J5" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="K5" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="L5" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="M5" s="3" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="6" spans="2:13" x14ac:dyDescent="0.45">
       <c r="B6" s="3" t="s">
         <v>7</v>
       </c>
@@ -941,14 +1122,26 @@
       <c r="G6" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="H6" s="8"/>
-      <c r="I6" s="3"/>
-      <c r="J6" s="3"/>
-      <c r="K6" s="3"/>
-      <c r="L6" s="3"/>
-      <c r="M6" s="3"/>
-    </row>
-    <row r="7" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="H6" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="I6" s="13" t="s">
+        <v>79</v>
+      </c>
+      <c r="J6" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="K6" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="L6" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="M6" s="3" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="7" spans="2:13" x14ac:dyDescent="0.45">
       <c r="B7" s="3" t="s">
         <v>8</v>
       </c>
@@ -965,14 +1158,26 @@
         <v>49</v>
       </c>
       <c r="G7" s="3"/>
-      <c r="H7" s="8"/>
-      <c r="I7" s="3"/>
-      <c r="J7" s="3"/>
-      <c r="K7" s="3"/>
-      <c r="L7" s="3"/>
-      <c r="M7" s="3"/>
-    </row>
-    <row r="8" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="H7" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="I7" s="13" t="s">
+        <v>80</v>
+      </c>
+      <c r="J7" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="K7" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="L7" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="M7" s="3" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="8" spans="2:13" x14ac:dyDescent="0.45">
       <c r="B8" s="3" t="s">
         <v>9</v>
       </c>
@@ -989,14 +1194,26 @@
         <v>47</v>
       </c>
       <c r="G8" s="3"/>
-      <c r="H8" s="8"/>
-      <c r="I8" s="3"/>
-      <c r="J8" s="3"/>
-      <c r="K8" s="3"/>
-      <c r="L8" s="3"/>
-      <c r="M8" s="3"/>
-    </row>
-    <row r="9" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="H8" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="I8" s="13" t="s">
+        <v>81</v>
+      </c>
+      <c r="J8" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="K8" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="L8" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="M8" s="3" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="9" spans="2:13" x14ac:dyDescent="0.45">
       <c r="B9" s="3" t="s">
         <v>10</v>
       </c>
@@ -1015,14 +1232,26 @@
       <c r="G9" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="H9" s="8"/>
-      <c r="I9" s="3"/>
-      <c r="J9" s="3"/>
-      <c r="K9" s="3"/>
-      <c r="L9" s="3"/>
-      <c r="M9" s="3"/>
-    </row>
-    <row r="10" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="H9" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="I9" s="13" t="s">
+        <v>82</v>
+      </c>
+      <c r="J9" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="K9" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="L9" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="M9" s="3" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="10" spans="2:13" x14ac:dyDescent="0.45">
       <c r="B10" s="3" t="s">
         <v>11</v>
       </c>
@@ -1039,14 +1268,26 @@
         <v>51</v>
       </c>
       <c r="G10" s="3"/>
-      <c r="H10" s="8"/>
-      <c r="I10" s="3"/>
-      <c r="J10" s="3"/>
-      <c r="K10" s="3"/>
-      <c r="L10" s="3"/>
-      <c r="M10" s="3"/>
-    </row>
-    <row r="11" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="H10" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="I10" s="13" t="s">
+        <v>83</v>
+      </c>
+      <c r="J10" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="K10" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="L10" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="M10" s="3" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="11" spans="2:13" x14ac:dyDescent="0.45">
       <c r="B11" s="3" t="s">
         <v>12</v>
       </c>
@@ -1065,14 +1306,26 @@
       <c r="G11" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="H11" s="8"/>
-      <c r="I11" s="3"/>
-      <c r="J11" s="3"/>
-      <c r="K11" s="3"/>
-      <c r="L11" s="3"/>
-      <c r="M11" s="3"/>
-    </row>
-    <row r="12" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="H11" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="I11" s="13" t="s">
+        <v>84</v>
+      </c>
+      <c r="J11" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="K11" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="L11" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="M11" s="3" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="12" spans="2:13" x14ac:dyDescent="0.45">
       <c r="B12" s="3" t="s">
         <v>13</v>
       </c>
@@ -1089,14 +1342,26 @@
         <v>55</v>
       </c>
       <c r="G12" s="3"/>
-      <c r="H12" s="8"/>
-      <c r="I12" s="3"/>
-      <c r="J12" s="3"/>
-      <c r="K12" s="3"/>
-      <c r="L12" s="3"/>
-      <c r="M12" s="3"/>
-    </row>
-    <row r="13" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="H12" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="I12" s="13" t="s">
+        <v>85</v>
+      </c>
+      <c r="J12" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="K12" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="L12" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="M12" s="3" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="13" spans="2:13" x14ac:dyDescent="0.45">
       <c r="B13" s="3" t="s">
         <v>14</v>
       </c>
@@ -1113,14 +1378,26 @@
         <v>47</v>
       </c>
       <c r="G13" s="3"/>
-      <c r="H13" s="8"/>
-      <c r="I13" s="3"/>
-      <c r="J13" s="3"/>
-      <c r="K13" s="3"/>
-      <c r="L13" s="3"/>
-      <c r="M13" s="3"/>
-    </row>
-    <row r="14" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="H13" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="I13" s="13" t="s">
+        <v>86</v>
+      </c>
+      <c r="J13" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="K13" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="L13" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="M13" s="3" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="14" spans="2:13" x14ac:dyDescent="0.45">
       <c r="B14" s="3" t="s">
         <v>15</v>
       </c>
@@ -1137,14 +1414,26 @@
         <v>45</v>
       </c>
       <c r="G14" s="3"/>
-      <c r="H14" s="8"/>
-      <c r="I14" s="3"/>
-      <c r="J14" s="3"/>
-      <c r="K14" s="3"/>
-      <c r="L14" s="3"/>
-      <c r="M14" s="3"/>
-    </row>
-    <row r="15" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="H14" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="I14" s="13" t="s">
+        <v>87</v>
+      </c>
+      <c r="J14" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="K14" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="L14" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="M14" s="3" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="15" spans="2:13" x14ac:dyDescent="0.45">
       <c r="B15" s="3" t="s">
         <v>16</v>
       </c>
@@ -1163,14 +1452,26 @@
       <c r="G15" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="H15" s="8"/>
-      <c r="I15" s="3"/>
-      <c r="J15" s="3"/>
-      <c r="K15" s="3"/>
-      <c r="L15" s="3"/>
-      <c r="M15" s="3"/>
-    </row>
-    <row r="16" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="H15" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="I15" s="13" t="s">
+        <v>88</v>
+      </c>
+      <c r="J15" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="K15" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="L15" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="M15" s="3" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="16" spans="2:13" x14ac:dyDescent="0.45">
       <c r="B16" s="3" t="s">
         <v>17</v>
       </c>
@@ -1187,12 +1488,24 @@
         <v>54</v>
       </c>
       <c r="G16" s="3"/>
-      <c r="H16" s="8"/>
-      <c r="I16" s="3"/>
-      <c r="J16" s="3"/>
-      <c r="K16" s="3"/>
-      <c r="L16" s="3"/>
-      <c r="M16" s="3"/>
+      <c r="H16" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="I16" s="13" t="s">
+        <v>89</v>
+      </c>
+      <c r="J16" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="K16" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="L16" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="M16" s="3" t="s">
+        <v>119</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -1209,22 +1522,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D5DE0CE8-6BD2-4AD8-A462-076F5ED3C8CC}">
   <dimension ref="B1:E18"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="6.375" customWidth="1"/>
+    <col min="1" max="1" width="6.33203125" customWidth="1"/>
     <col min="2" max="2" width="23.75" customWidth="1"/>
-    <col min="3" max="3" width="13.875" customWidth="1"/>
-    <col min="4" max="4" width="29.125" customWidth="1"/>
+    <col min="3" max="3" width="13.83203125" customWidth="1"/>
+    <col min="4" max="4" width="29.08203125" customWidth="1"/>
     <col min="5" max="5" width="12.25" customWidth="1"/>
-    <col min="6" max="6" width="11.375" customWidth="1"/>
+    <col min="6" max="6" width="11.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="2" spans="2:5" ht="34.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="2:5" ht="17.5" thickBot="1" x14ac:dyDescent="0.5"/>
+    <row r="2" spans="2:5" ht="34.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B2" s="10" t="s">
         <v>57</v>
       </c>
@@ -1232,7 +1545,7 @@
       <c r="D2" s="10"/>
       <c r="E2" s="10"/>
     </row>
-    <row r="4" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B4" s="1" t="s">
         <v>2</v>
       </c>
@@ -1246,7 +1559,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B5" s="3" t="s">
         <v>6</v>
       </c>
@@ -1258,7 +1571,7 @@
       </c>
       <c r="E5" s="3"/>
     </row>
-    <row r="6" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B6" s="3" t="s">
         <v>7</v>
       </c>
@@ -1270,7 +1583,7 @@
       </c>
       <c r="E6" s="3"/>
     </row>
-    <row r="7" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B7" s="3" t="s">
         <v>8</v>
       </c>
@@ -1282,7 +1595,7 @@
       </c>
       <c r="E7" s="3"/>
     </row>
-    <row r="8" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B8" s="11" t="s">
         <v>9</v>
       </c>
@@ -1292,15 +1605,17 @@
       <c r="D8" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="E8" s="11"/>
-    </row>
-    <row r="9" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="E8" s="11" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="9" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B9" s="12"/>
       <c r="C9" s="12"/>
       <c r="D9" s="12"/>
       <c r="E9" s="12"/>
     </row>
-    <row r="10" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B10" s="3" t="s">
         <v>10</v>
       </c>
@@ -1312,7 +1627,7 @@
       </c>
       <c r="E10" s="3"/>
     </row>
-    <row r="11" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B11" s="3" t="s">
         <v>11</v>
       </c>
@@ -1324,7 +1639,7 @@
       </c>
       <c r="E11" s="3"/>
     </row>
-    <row r="12" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B12" s="3" t="s">
         <v>12</v>
       </c>
@@ -1336,7 +1651,7 @@
       </c>
       <c r="E12" s="3"/>
     </row>
-    <row r="13" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B13" s="3" t="s">
         <v>13</v>
       </c>
@@ -1348,7 +1663,7 @@
       </c>
       <c r="E13" s="3"/>
     </row>
-    <row r="14" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B14" s="11" t="s">
         <v>14</v>
       </c>
@@ -1360,13 +1675,13 @@
       </c>
       <c r="E14" s="11"/>
     </row>
-    <row r="15" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B15" s="12"/>
       <c r="C15" s="12"/>
       <c r="D15" s="12"/>
       <c r="E15" s="12"/>
     </row>
-    <row r="16" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B16" s="3" t="s">
         <v>15</v>
       </c>
@@ -1378,7 +1693,7 @@
       </c>
       <c r="E16" s="3"/>
     </row>
-    <row r="17" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B17" s="3" t="s">
         <v>16</v>
       </c>
@@ -1390,7 +1705,7 @@
       </c>
       <c r="E17" s="3"/>
     </row>
-    <row r="18" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B18" s="3" t="s">
         <v>17</v>
       </c>
